--- a/Ejemplos_Rutas.xlsx
+++ b/Ejemplos_Rutas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/jose1225pablo_estudiantec_cr/Documents/TEC/2022/MICROS/ProyectoMicros2022_Grupo1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3528DC27-2EFC-4FAA-A2E3-90A310B2FF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DB9AF45-58FF-4FA3-A1A6-4B8E5BFDE7E7}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{3528DC27-2EFC-4FAA-A2E3-90A310B2FF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2ECA172-CFA3-4248-84D4-EDBEA36E20E8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modo 1" sheetId="1" r:id="rId1"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -687,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455002C1-BD52-4642-AA92-5AD7C11C85FF}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
